--- a/codigo/2D/ejemplo_T3/python/malla_refinada_v1.xlsx
+++ b/codigo/2D/ejemplo_T3/python/malla_refinada_v1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LaG" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="LaG_mat" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="restric" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="carga_distr" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="prop_mat" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +39,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -51,7 +52,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -69,13 +70,12 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
+          <t>X=1, Y=2</t>
         </r>
       </text>
     </comment>
@@ -88,7 +88,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -109,8 +109,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -121,8 +122,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -133,8 +135,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -145,8 +148,9 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N/m^2</t>
+          <t>N/m^2</t>
         </r>
       </text>
     </comment>
@@ -169,7 +173,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">X=1, Y=2</t>
+          <t>X=1, Y=2</t>
         </r>
       </text>
     </comment>
@@ -182,7 +186,56 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">N</t>
+          <t>N</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Pa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kg/m^3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>m</t>
         </r>
       </text>
     </comment>
@@ -191,63 +244,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
-    <t xml:space="preserve">nodo</t>
+    <t>nodo</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t>y</t>
   </si>
   <si>
-    <t xml:space="preserve">EF</t>
+    <t>EF</t>
   </si>
   <si>
-    <t xml:space="preserve">NL1</t>
+    <t>NL1</t>
   </si>
   <si>
-    <t xml:space="preserve">NL2</t>
+    <t>NL2</t>
   </si>
   <si>
-    <t xml:space="preserve">NL3</t>
+    <t>NL3</t>
   </si>
   <si>
-    <t xml:space="preserve">dirección</t>
+    <t>material</t>
   </si>
   <si>
-    <t xml:space="preserve">desplazamiento</t>
+    <t>dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">elemento</t>
+    <t>desplazamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">lado</t>
+    <t>elemento</t>
   </si>
   <si>
-    <t xml:space="preserve">tix</t>
+    <t>lado</t>
   </si>
   <si>
-    <t xml:space="preserve">tiy</t>
+    <t>tix</t>
   </si>
   <si>
-    <t xml:space="preserve">tjx</t>
+    <t>tiy</t>
   </si>
   <si>
-    <t xml:space="preserve">tjy</t>
+    <t>tjx</t>
   </si>
   <si>
-    <t xml:space="preserve">fuerza puntual</t>
+    <t>tjy</t>
+  </si>
+  <si>
+    <t>fuerza puntual</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>espesor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -279,9 +348,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,7 +397,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +411,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,13 +441,13 @@
   </sheetPr>
   <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,17 +2313,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="4.40816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,6 +2339,9 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -2273,6 +2355,9 @@
       </c>
       <c r="D2" s="0" t="n">
         <v>19</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,6 +2374,9 @@
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -2304,6 +2392,9 @@
       <c r="D4" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -2319,6 +2410,9 @@
       <c r="D5" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -2334,6 +2428,9 @@
       <c r="D6" s="0" t="n">
         <v>53</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -2349,6 +2446,9 @@
       <c r="D7" s="0" t="n">
         <v>35</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -2364,6 +2464,9 @@
       <c r="D8" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -2379,6 +2482,9 @@
       <c r="D9" s="0" t="n">
         <v>52</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2394,6 +2500,9 @@
       <c r="D10" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2409,6 +2518,9 @@
       <c r="D11" s="0" t="n">
         <v>69</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2424,6 +2536,9 @@
       <c r="D12" s="0" t="n">
         <v>104</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2439,6 +2554,9 @@
       <c r="D13" s="0" t="n">
         <v>86</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2454,6 +2572,9 @@
       <c r="D14" s="0" t="n">
         <v>121</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2469,6 +2590,9 @@
       <c r="D15" s="0" t="n">
         <v>103</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2484,6 +2608,9 @@
       <c r="D16" s="0" t="n">
         <v>138</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2499,6 +2626,9 @@
       <c r="D17" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2514,6 +2644,9 @@
       <c r="D18" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2529,6 +2662,9 @@
       <c r="D19" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2544,6 +2680,9 @@
       <c r="D20" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2559,6 +2698,9 @@
       <c r="D21" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2574,6 +2716,9 @@
       <c r="D22" s="0" t="n">
         <v>54</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2589,6 +2734,9 @@
       <c r="D23" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -2604,6 +2752,9 @@
       <c r="D24" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -2619,6 +2770,9 @@
       <c r="D25" s="0" t="n">
         <v>53</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -2634,6 +2788,9 @@
       <c r="D26" s="0" t="n">
         <v>88</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -2649,6 +2806,9 @@
       <c r="D27" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -2664,6 +2824,9 @@
       <c r="D28" s="0" t="n">
         <v>105</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -2679,6 +2842,9 @@
       <c r="D29" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -2694,6 +2860,9 @@
       <c r="D30" s="0" t="n">
         <v>122</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -2709,6 +2878,9 @@
       <c r="D31" s="0" t="n">
         <v>104</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -2724,6 +2896,9 @@
       <c r="D32" s="0" t="n">
         <v>139</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -2739,6 +2914,9 @@
       <c r="D33" s="0" t="n">
         <v>121</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -2754,6 +2932,9 @@
       <c r="D34" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -2769,6 +2950,9 @@
       <c r="D35" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -2784,6 +2968,9 @@
       <c r="D36" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -2799,6 +2986,9 @@
       <c r="D37" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -2814,6 +3004,9 @@
       <c r="D38" s="0" t="n">
         <v>55</v>
       </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -2829,6 +3022,9 @@
       <c r="D39" s="0" t="n">
         <v>37</v>
       </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -2844,6 +3040,9 @@
       <c r="D40" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -2859,6 +3058,9 @@
       <c r="D41" s="0" t="n">
         <v>54</v>
       </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -2874,6 +3076,9 @@
       <c r="D42" s="0" t="n">
         <v>89</v>
       </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -2889,6 +3094,9 @@
       <c r="D43" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -2904,6 +3112,9 @@
       <c r="D44" s="0" t="n">
         <v>106</v>
       </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -2919,6 +3130,9 @@
       <c r="D45" s="0" t="n">
         <v>88</v>
       </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -2934,6 +3148,9 @@
       <c r="D46" s="0" t="n">
         <v>123</v>
       </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -2949,6 +3166,9 @@
       <c r="D47" s="0" t="n">
         <v>105</v>
       </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -2964,6 +3184,9 @@
       <c r="D48" s="0" t="n">
         <v>140</v>
       </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -2979,6 +3202,9 @@
       <c r="D49" s="0" t="n">
         <v>122</v>
       </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -2994,6 +3220,9 @@
       <c r="D50" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -3009,6 +3238,9 @@
       <c r="D51" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -3024,6 +3256,9 @@
       <c r="D52" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -3039,6 +3274,9 @@
       <c r="D53" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -3054,6 +3292,9 @@
       <c r="D54" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -3069,6 +3310,9 @@
       <c r="D55" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -3084,6 +3328,9 @@
       <c r="D56" s="0" t="n">
         <v>73</v>
       </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -3099,6 +3346,9 @@
       <c r="D57" s="0" t="n">
         <v>55</v>
       </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -3114,6 +3364,9 @@
       <c r="D58" s="0" t="n">
         <v>90</v>
       </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -3129,6 +3382,9 @@
       <c r="D59" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -3144,6 +3400,9 @@
       <c r="D60" s="0" t="n">
         <v>107</v>
       </c>
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -3159,6 +3418,9 @@
       <c r="D61" s="0" t="n">
         <v>89</v>
       </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -3174,6 +3436,9 @@
       <c r="D62" s="0" t="n">
         <v>124</v>
       </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -3189,6 +3454,9 @@
       <c r="D63" s="0" t="n">
         <v>106</v>
       </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -3204,6 +3472,9 @@
       <c r="D64" s="0" t="n">
         <v>141</v>
       </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -3219,6 +3490,9 @@
       <c r="D65" s="0" t="n">
         <v>123</v>
       </c>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -3234,6 +3508,9 @@
       <c r="D66" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="E66" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -3249,6 +3526,9 @@
       <c r="D67" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="E67" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -3264,6 +3544,9 @@
       <c r="D68" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -3279,6 +3562,9 @@
       <c r="D69" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -3294,6 +3580,9 @@
       <c r="D70" s="0" t="n">
         <v>57</v>
       </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -3309,6 +3598,9 @@
       <c r="D71" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -3324,6 +3616,9 @@
       <c r="D72" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="E72" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -3339,6 +3634,9 @@
       <c r="D73" s="0" t="n">
         <v>56</v>
       </c>
+      <c r="E73" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -3354,6 +3652,9 @@
       <c r="D74" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="E74" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -3369,6 +3670,9 @@
       <c r="D75" s="0" t="n">
         <v>73</v>
       </c>
+      <c r="E75" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -3384,6 +3688,9 @@
       <c r="D76" s="0" t="n">
         <v>108</v>
       </c>
+      <c r="E76" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -3399,6 +3706,9 @@
       <c r="D77" s="0" t="n">
         <v>90</v>
       </c>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -3414,6 +3724,9 @@
       <c r="D78" s="0" t="n">
         <v>125</v>
       </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -3429,6 +3742,9 @@
       <c r="D79" s="0" t="n">
         <v>107</v>
       </c>
+      <c r="E79" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -3444,6 +3760,9 @@
       <c r="D80" s="0" t="n">
         <v>142</v>
       </c>
+      <c r="E80" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -3459,6 +3778,9 @@
       <c r="D81" s="0" t="n">
         <v>124</v>
       </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -3474,6 +3796,9 @@
       <c r="D82" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="E82" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -3489,6 +3814,9 @@
       <c r="D83" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E83" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -3504,6 +3832,9 @@
       <c r="D84" s="0" t="n">
         <v>41</v>
       </c>
+      <c r="E84" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -3519,6 +3850,9 @@
       <c r="D85" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="E85" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
@@ -3534,6 +3868,9 @@
       <c r="D86" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
@@ -3549,6 +3886,9 @@
       <c r="D87" s="0" t="n">
         <v>40</v>
       </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
@@ -3564,6 +3904,9 @@
       <c r="D88" s="0" t="n">
         <v>75</v>
       </c>
+      <c r="E88" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -3579,6 +3922,9 @@
       <c r="D89" s="0" t="n">
         <v>57</v>
       </c>
+      <c r="E89" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
@@ -3594,6 +3940,9 @@
       <c r="D90" s="0" t="n">
         <v>92</v>
       </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -3609,6 +3958,9 @@
       <c r="D91" s="0" t="n">
         <v>74</v>
       </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
@@ -3624,6 +3976,9 @@
       <c r="D92" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
@@ -3639,6 +3994,9 @@
       <c r="D93" s="0" t="n">
         <v>91</v>
       </c>
+      <c r="E93" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -3654,6 +4012,9 @@
       <c r="D94" s="0" t="n">
         <v>126</v>
       </c>
+      <c r="E94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -3669,6 +4030,9 @@
       <c r="D95" s="0" t="n">
         <v>108</v>
       </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -3684,6 +4048,9 @@
       <c r="D96" s="0" t="n">
         <v>143</v>
       </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -3699,6 +4066,9 @@
       <c r="D97" s="0" t="n">
         <v>125</v>
       </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -3714,6 +4084,9 @@
       <c r="D98" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -3729,6 +4102,9 @@
       <c r="D99" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
@@ -3744,6 +4120,9 @@
       <c r="D100" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="E100" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
@@ -3759,6 +4138,9 @@
       <c r="D101" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
@@ -3774,6 +4156,9 @@
       <c r="D102" s="0" t="n">
         <v>59</v>
       </c>
+      <c r="E102" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
@@ -3789,6 +4174,9 @@
       <c r="D103" s="0" t="n">
         <v>41</v>
       </c>
+      <c r="E103" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -3804,6 +4192,9 @@
       <c r="D104" s="0" t="n">
         <v>76</v>
       </c>
+      <c r="E104" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -3819,6 +4210,9 @@
       <c r="D105" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="E105" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -3834,6 +4228,9 @@
       <c r="D106" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="E106" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -3849,6 +4246,9 @@
       <c r="D107" s="0" t="n">
         <v>75</v>
       </c>
+      <c r="E107" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -3864,6 +4264,9 @@
       <c r="D108" s="0" t="n">
         <v>110</v>
       </c>
+      <c r="E108" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -3879,6 +4282,9 @@
       <c r="D109" s="0" t="n">
         <v>92</v>
       </c>
+      <c r="E109" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
@@ -3894,6 +4300,9 @@
       <c r="D110" s="0" t="n">
         <v>127</v>
       </c>
+      <c r="E110" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
@@ -3909,6 +4318,9 @@
       <c r="D111" s="0" t="n">
         <v>109</v>
       </c>
+      <c r="E111" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -3924,6 +4336,9 @@
       <c r="D112" s="0" t="n">
         <v>144</v>
       </c>
+      <c r="E112" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -3939,6 +4354,9 @@
       <c r="D113" s="0" t="n">
         <v>126</v>
       </c>
+      <c r="E113" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -3954,6 +4372,9 @@
       <c r="D114" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="E114" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -3969,6 +4390,9 @@
       <c r="D115" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="E115" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -3984,6 +4408,9 @@
       <c r="D116" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="E116" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
@@ -3999,6 +4426,9 @@
       <c r="D117" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="E117" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -4014,6 +4444,9 @@
       <c r="D118" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="E118" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -4029,6 +4462,9 @@
       <c r="D119" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="E119" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -4044,6 +4480,9 @@
       <c r="D120" s="0" t="n">
         <v>77</v>
       </c>
+      <c r="E120" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -4059,6 +4498,9 @@
       <c r="D121" s="0" t="n">
         <v>59</v>
       </c>
+      <c r="E121" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -4074,6 +4516,9 @@
       <c r="D122" s="0" t="n">
         <v>94</v>
       </c>
+      <c r="E122" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -4089,6 +4534,9 @@
       <c r="D123" s="0" t="n">
         <v>76</v>
       </c>
+      <c r="E123" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -4104,6 +4552,9 @@
       <c r="D124" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="E124" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -4119,6 +4570,9 @@
       <c r="D125" s="0" t="n">
         <v>93</v>
       </c>
+      <c r="E125" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -4134,6 +4588,9 @@
       <c r="D126" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="E126" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -4149,6 +4606,9 @@
       <c r="D127" s="0" t="n">
         <v>110</v>
       </c>
+      <c r="E127" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -4164,6 +4624,9 @@
       <c r="D128" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="E128" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -4179,6 +4642,9 @@
       <c r="D129" s="0" t="n">
         <v>127</v>
       </c>
+      <c r="E129" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -4194,6 +4660,9 @@
       <c r="D130" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="E130" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
@@ -4209,6 +4678,9 @@
       <c r="D131" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="E131" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
@@ -4224,6 +4696,9 @@
       <c r="D132" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="E132" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
@@ -4239,6 +4714,9 @@
       <c r="D133" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="E133" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
@@ -4254,6 +4732,9 @@
       <c r="D134" s="0" t="n">
         <v>61</v>
       </c>
+      <c r="E134" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -4269,6 +4750,9 @@
       <c r="D135" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="E135" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -4284,6 +4768,9 @@
       <c r="D136" s="0" t="n">
         <v>78</v>
       </c>
+      <c r="E136" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
@@ -4299,6 +4786,9 @@
       <c r="D137" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="E137" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -4314,6 +4804,9 @@
       <c r="D138" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="E138" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
@@ -4329,6 +4822,9 @@
       <c r="D139" s="0" t="n">
         <v>77</v>
       </c>
+      <c r="E139" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
@@ -4344,6 +4840,9 @@
       <c r="D140" s="0" t="n">
         <v>112</v>
       </c>
+      <c r="E140" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
@@ -4359,6 +4858,9 @@
       <c r="D141" s="0" t="n">
         <v>94</v>
       </c>
+      <c r="E141" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
@@ -4374,6 +4876,9 @@
       <c r="D142" s="0" t="n">
         <v>129</v>
       </c>
+      <c r="E142" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
@@ -4389,6 +4894,9 @@
       <c r="D143" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="E143" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
@@ -4404,6 +4912,9 @@
       <c r="D144" s="0" t="n">
         <v>146</v>
       </c>
+      <c r="E144" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
@@ -4419,6 +4930,9 @@
       <c r="D145" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="E145" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
@@ -4434,6 +4948,9 @@
       <c r="D146" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="E146" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
@@ -4449,6 +4966,9 @@
       <c r="D147" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E147" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -4464,6 +4984,9 @@
       <c r="D148" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="E148" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
@@ -4479,6 +5002,9 @@
       <c r="D149" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="E149" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -4494,6 +5020,9 @@
       <c r="D150" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="E150" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
@@ -4509,6 +5038,9 @@
       <c r="D151" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="E151" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
@@ -4524,6 +5056,9 @@
       <c r="D152" s="0" t="n">
         <v>79</v>
       </c>
+      <c r="E152" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
@@ -4539,6 +5074,9 @@
       <c r="D153" s="0" t="n">
         <v>61</v>
       </c>
+      <c r="E153" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
@@ -4554,6 +5092,9 @@
       <c r="D154" s="0" t="n">
         <v>96</v>
       </c>
+      <c r="E154" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
@@ -4569,6 +5110,9 @@
       <c r="D155" s="0" t="n">
         <v>78</v>
       </c>
+      <c r="E155" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
@@ -4584,6 +5128,9 @@
       <c r="D156" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="E156" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
@@ -4599,6 +5146,9 @@
       <c r="D157" s="0" t="n">
         <v>95</v>
       </c>
+      <c r="E157" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
@@ -4614,6 +5164,9 @@
       <c r="D158" s="0" t="n">
         <v>130</v>
       </c>
+      <c r="E158" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
@@ -4629,6 +5182,9 @@
       <c r="D159" s="0" t="n">
         <v>112</v>
       </c>
+      <c r="E159" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
@@ -4644,6 +5200,9 @@
       <c r="D160" s="0" t="n">
         <v>147</v>
       </c>
+      <c r="E160" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
@@ -4659,6 +5218,9 @@
       <c r="D161" s="0" t="n">
         <v>129</v>
       </c>
+      <c r="E161" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
@@ -4674,6 +5236,9 @@
       <c r="D162" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="E162" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
@@ -4689,6 +5254,9 @@
       <c r="D163" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="E163" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
@@ -4704,6 +5272,9 @@
       <c r="D164" s="0" t="n">
         <v>46</v>
       </c>
+      <c r="E164" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
@@ -4719,6 +5290,9 @@
       <c r="D165" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="E165" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
@@ -4734,6 +5308,9 @@
       <c r="D166" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="E166" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
@@ -4749,6 +5326,9 @@
       <c r="D167" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="E167" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
@@ -4764,6 +5344,9 @@
       <c r="D168" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="E168" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
@@ -4779,6 +5362,9 @@
       <c r="D169" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="E169" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
@@ -4794,6 +5380,9 @@
       <c r="D170" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="E170" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
@@ -4809,6 +5398,9 @@
       <c r="D171" s="0" t="n">
         <v>79</v>
       </c>
+      <c r="E171" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
@@ -4824,6 +5416,9 @@
       <c r="D172" s="0" t="n">
         <v>114</v>
       </c>
+      <c r="E172" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
@@ -4839,6 +5434,9 @@
       <c r="D173" s="0" t="n">
         <v>96</v>
       </c>
+      <c r="E173" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
@@ -4854,6 +5452,9 @@
       <c r="D174" s="0" t="n">
         <v>131</v>
       </c>
+      <c r="E174" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
@@ -4869,6 +5470,9 @@
       <c r="D175" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="E175" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
@@ -4884,6 +5488,9 @@
       <c r="D176" s="0" t="n">
         <v>148</v>
       </c>
+      <c r="E176" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
@@ -4899,6 +5506,9 @@
       <c r="D177" s="0" t="n">
         <v>130</v>
       </c>
+      <c r="E177" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -4914,6 +5524,9 @@
       <c r="D178" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="E178" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
@@ -4929,6 +5542,9 @@
       <c r="D179" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="E179" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
@@ -4944,6 +5560,9 @@
       <c r="D180" s="0" t="n">
         <v>47</v>
       </c>
+      <c r="E180" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
@@ -4959,6 +5578,9 @@
       <c r="D181" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="E181" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
@@ -4974,6 +5596,9 @@
       <c r="D182" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="E182" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
@@ -4989,6 +5614,9 @@
       <c r="D183" s="0" t="n">
         <v>46</v>
       </c>
+      <c r="E183" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
@@ -5004,6 +5632,9 @@
       <c r="D184" s="0" t="n">
         <v>81</v>
       </c>
+      <c r="E184" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
@@ -5019,6 +5650,9 @@
       <c r="D185" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="E185" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
@@ -5034,6 +5668,9 @@
       <c r="D186" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="E186" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
@@ -5049,6 +5686,9 @@
       <c r="D187" s="0" t="n">
         <v>80</v>
       </c>
+      <c r="E187" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
@@ -5064,6 +5704,9 @@
       <c r="D188" s="0" t="n">
         <v>115</v>
       </c>
+      <c r="E188" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
@@ -5079,6 +5722,9 @@
       <c r="D189" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="E189" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
@@ -5094,6 +5740,9 @@
       <c r="D190" s="0" t="n">
         <v>132</v>
       </c>
+      <c r="E190" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
@@ -5109,6 +5758,9 @@
       <c r="D191" s="0" t="n">
         <v>114</v>
       </c>
+      <c r="E191" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
@@ -5124,6 +5776,9 @@
       <c r="D192" s="0" t="n">
         <v>149</v>
       </c>
+      <c r="E192" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
@@ -5139,6 +5794,9 @@
       <c r="D193" s="0" t="n">
         <v>131</v>
       </c>
+      <c r="E193" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
@@ -5154,6 +5812,9 @@
       <c r="D194" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="E194" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
@@ -5169,6 +5830,9 @@
       <c r="D195" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="E195" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
@@ -5184,6 +5848,9 @@
       <c r="D196" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="E196" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
@@ -5199,6 +5866,9 @@
       <c r="D197" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="E197" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
@@ -5214,6 +5884,9 @@
       <c r="D198" s="0" t="n">
         <v>65</v>
       </c>
+      <c r="E198" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
@@ -5229,6 +5902,9 @@
       <c r="D199" s="0" t="n">
         <v>47</v>
       </c>
+      <c r="E199" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
@@ -5244,6 +5920,9 @@
       <c r="D200" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="E200" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
@@ -5259,6 +5938,9 @@
       <c r="D201" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="E201" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
@@ -5274,6 +5956,9 @@
       <c r="D202" s="0" t="n">
         <v>99</v>
       </c>
+      <c r="E202" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
@@ -5289,6 +5974,9 @@
       <c r="D203" s="0" t="n">
         <v>81</v>
       </c>
+      <c r="E203" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
@@ -5304,6 +5992,9 @@
       <c r="D204" s="0" t="n">
         <v>116</v>
       </c>
+      <c r="E204" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
@@ -5319,6 +6010,9 @@
       <c r="D205" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="E205" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
@@ -5334,6 +6028,9 @@
       <c r="D206" s="0" t="n">
         <v>133</v>
       </c>
+      <c r="E206" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
@@ -5349,6 +6046,9 @@
       <c r="D207" s="0" t="n">
         <v>115</v>
       </c>
+      <c r="E207" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
@@ -5364,6 +6064,9 @@
       <c r="D208" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="E208" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
@@ -5379,6 +6082,9 @@
       <c r="D209" s="0" t="n">
         <v>132</v>
       </c>
+      <c r="E209" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
@@ -5394,6 +6100,9 @@
       <c r="D210" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="E210" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
@@ -5409,6 +6118,9 @@
       <c r="D211" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="E211" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
@@ -5424,6 +6136,9 @@
       <c r="D212" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="E212" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
@@ -5439,6 +6154,9 @@
       <c r="D213" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="E213" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
@@ -5454,6 +6172,9 @@
       <c r="D214" s="0" t="n">
         <v>66</v>
       </c>
+      <c r="E214" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
@@ -5469,6 +6190,9 @@
       <c r="D215" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="E215" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
@@ -5484,6 +6208,9 @@
       <c r="D216" s="0" t="n">
         <v>83</v>
       </c>
+      <c r="E216" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
@@ -5499,6 +6226,9 @@
       <c r="D217" s="0" t="n">
         <v>65</v>
       </c>
+      <c r="E217" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
@@ -5514,6 +6244,9 @@
       <c r="D218" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="E218" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
@@ -5529,6 +6262,9 @@
       <c r="D219" s="0" t="n">
         <v>82</v>
       </c>
+      <c r="E219" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
@@ -5544,6 +6280,9 @@
       <c r="D220" s="0" t="n">
         <v>117</v>
       </c>
+      <c r="E220" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
@@ -5559,6 +6298,9 @@
       <c r="D221" s="0" t="n">
         <v>99</v>
       </c>
+      <c r="E221" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
@@ -5574,6 +6316,9 @@
       <c r="D222" s="0" t="n">
         <v>134</v>
       </c>
+      <c r="E222" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
@@ -5589,6 +6334,9 @@
       <c r="D223" s="0" t="n">
         <v>116</v>
       </c>
+      <c r="E223" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
@@ -5604,6 +6352,9 @@
       <c r="D224" s="0" t="n">
         <v>151</v>
       </c>
+      <c r="E224" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
@@ -5619,6 +6370,9 @@
       <c r="D225" s="0" t="n">
         <v>133</v>
       </c>
+      <c r="E225" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
@@ -5634,6 +6388,9 @@
       <c r="D226" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="E226" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
@@ -5649,6 +6406,9 @@
       <c r="D227" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="E227" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
@@ -5664,6 +6424,9 @@
       <c r="D228" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="E228" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
@@ -5679,6 +6442,9 @@
       <c r="D229" s="0" t="n">
         <v>32</v>
       </c>
+      <c r="E229" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
@@ -5694,6 +6460,9 @@
       <c r="D230" s="0" t="n">
         <v>67</v>
       </c>
+      <c r="E230" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
@@ -5709,6 +6478,9 @@
       <c r="D231" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="E231" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
@@ -5724,6 +6496,9 @@
       <c r="D232" s="0" t="n">
         <v>84</v>
       </c>
+      <c r="E232" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
@@ -5739,6 +6514,9 @@
       <c r="D233" s="0" t="n">
         <v>66</v>
       </c>
+      <c r="E233" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
@@ -5754,6 +6532,9 @@
       <c r="D234" s="0" t="n">
         <v>101</v>
       </c>
+      <c r="E234" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
@@ -5769,6 +6550,9 @@
       <c r="D235" s="0" t="n">
         <v>83</v>
       </c>
+      <c r="E235" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
@@ -5784,6 +6568,9 @@
       <c r="D236" s="0" t="n">
         <v>118</v>
       </c>
+      <c r="E236" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
@@ -5799,6 +6586,9 @@
       <c r="D237" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="E237" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
@@ -5814,6 +6604,9 @@
       <c r="D238" s="0" t="n">
         <v>135</v>
       </c>
+      <c r="E238" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
@@ -5829,6 +6622,9 @@
       <c r="D239" s="0" t="n">
         <v>117</v>
       </c>
+      <c r="E239" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
@@ -5844,6 +6640,9 @@
       <c r="D240" s="0" t="n">
         <v>152</v>
       </c>
+      <c r="E240" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
@@ -5859,6 +6658,9 @@
       <c r="D241" s="0" t="n">
         <v>134</v>
       </c>
+      <c r="E241" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
@@ -5874,6 +6676,9 @@
       <c r="D242" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="E242" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
@@ -5889,6 +6694,9 @@
       <c r="D243" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="E243" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
@@ -5904,6 +6712,9 @@
       <c r="D244" s="0" t="n">
         <v>51</v>
       </c>
+      <c r="E244" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
@@ -5919,6 +6730,9 @@
       <c r="D245" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="E245" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
@@ -5934,6 +6748,9 @@
       <c r="D246" s="0" t="n">
         <v>68</v>
       </c>
+      <c r="E246" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
@@ -5949,6 +6766,9 @@
       <c r="D247" s="0" t="n">
         <v>50</v>
       </c>
+      <c r="E247" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
@@ -5964,6 +6784,9 @@
       <c r="D248" s="0" t="n">
         <v>85</v>
       </c>
+      <c r="E248" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
@@ -5979,6 +6802,9 @@
       <c r="D249" s="0" t="n">
         <v>67</v>
       </c>
+      <c r="E249" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
@@ -5994,6 +6820,9 @@
       <c r="D250" s="0" t="n">
         <v>102</v>
       </c>
+      <c r="E250" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
@@ -6009,6 +6838,9 @@
       <c r="D251" s="0" t="n">
         <v>84</v>
       </c>
+      <c r="E251" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
@@ -6024,6 +6856,9 @@
       <c r="D252" s="0" t="n">
         <v>119</v>
       </c>
+      <c r="E252" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
@@ -6039,6 +6874,9 @@
       <c r="D253" s="0" t="n">
         <v>101</v>
       </c>
+      <c r="E253" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
@@ -6054,6 +6892,9 @@
       <c r="D254" s="0" t="n">
         <v>136</v>
       </c>
+      <c r="E254" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
@@ -6069,6 +6910,9 @@
       <c r="D255" s="0" t="n">
         <v>118</v>
       </c>
+      <c r="E255" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
@@ -6084,6 +6928,9 @@
       <c r="D256" s="0" t="n">
         <v>153</v>
       </c>
+      <c r="E256" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
@@ -6098,6 +6945,9 @@
       </c>
       <c r="D257" s="0" t="n">
         <v>135</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6124,9 +6974,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9540816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,27 +7048,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,12 +7251,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6414,10 +7264,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,6 +7292,65 @@
       <c r="C3" s="3" t="n">
         <f aca="false">7000*SIN(RADIANS(60))</f>
         <v>6062.17782649107</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>200000000000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7850</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
